--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgi2-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgi2-Adam22.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.003455333333333333</v>
+        <v>0.1376636666666667</v>
       </c>
       <c r="H2">
-        <v>0.010366</v>
+        <v>0.412991</v>
       </c>
       <c r="I2">
-        <v>0.0004491504963533279</v>
+        <v>0.01821680097623009</v>
       </c>
       <c r="J2">
-        <v>0.0004491504963533278</v>
+        <v>0.01821680097623009</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.715363</v>
+        <v>1.667434</v>
       </c>
       <c r="N2">
-        <v>5.146089</v>
+        <v>5.002302</v>
       </c>
       <c r="O2">
-        <v>0.1765901754351529</v>
+        <v>0.3223739883484499</v>
       </c>
       <c r="P2">
-        <v>0.1765901754351529</v>
+        <v>0.32237398834845</v>
       </c>
       <c r="Q2">
-        <v>0.005927150952666667</v>
+        <v>0.2295450783646667</v>
       </c>
       <c r="R2">
-        <v>0.053344358574</v>
+        <v>2.065905705282</v>
       </c>
       <c r="S2">
-        <v>7.93155649478202E-05</v>
+        <v>0.005872622785657229</v>
       </c>
       <c r="T2">
-        <v>7.931556494782017E-05</v>
+        <v>0.005872622785657231</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.003455333333333333</v>
+        <v>0.1376636666666667</v>
       </c>
       <c r="H3">
-        <v>0.010366</v>
+        <v>0.412991</v>
       </c>
       <c r="I3">
-        <v>0.0004491504963533279</v>
+        <v>0.01821680097623009</v>
       </c>
       <c r="J3">
-        <v>0.0004491504963533278</v>
+        <v>0.01821680097623009</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.403445</v>
       </c>
       <c r="O3">
-        <v>0.1167906248092277</v>
+        <v>0.2193354457157105</v>
       </c>
       <c r="P3">
-        <v>0.1167906248092277</v>
+        <v>0.2193354457157106</v>
       </c>
       <c r="Q3">
-        <v>0.003920012318888889</v>
+        <v>0.1561769059994444</v>
       </c>
       <c r="R3">
-        <v>0.03528011087</v>
+        <v>1.405592153995</v>
       </c>
       <c r="S3">
-        <v>5.245656710247993E-05</v>
+        <v>0.003995590161635816</v>
       </c>
       <c r="T3">
-        <v>5.245656710247993E-05</v>
+        <v>0.003995590161635818</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.003455333333333333</v>
+        <v>0.1376636666666667</v>
       </c>
       <c r="H4">
-        <v>0.010366</v>
+        <v>0.412991</v>
       </c>
       <c r="I4">
-        <v>0.0004491504963533279</v>
+        <v>0.01821680097623009</v>
       </c>
       <c r="J4">
-        <v>0.0004491504963533278</v>
+        <v>0.01821680097623009</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8505606666666666</v>
+        <v>0.2055123333333333</v>
       </c>
       <c r="N4">
-        <v>2.551682</v>
+        <v>0.616537</v>
       </c>
       <c r="O4">
-        <v>0.08756202468218523</v>
+        <v>0.03973280534729575</v>
       </c>
       <c r="P4">
-        <v>0.08756202468218521</v>
+        <v>0.03973280534729576</v>
       </c>
       <c r="Q4">
-        <v>0.002938970623555555</v>
+        <v>0.02829158135188889</v>
       </c>
       <c r="R4">
-        <v>0.026450735612</v>
+        <v>0.254624232167</v>
       </c>
       <c r="S4">
-        <v>3.932852684770584E-05</v>
+        <v>0.0007238046072389773</v>
       </c>
       <c r="T4">
-        <v>3.932852684770583E-05</v>
+        <v>0.0007238046072389775</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.003455333333333333</v>
+        <v>0.1376636666666667</v>
       </c>
       <c r="H5">
-        <v>0.010366</v>
+        <v>0.412991</v>
       </c>
       <c r="I5">
-        <v>0.0004491504963533279</v>
+        <v>0.01821680097623009</v>
       </c>
       <c r="J5">
-        <v>0.0004491504963533278</v>
+        <v>0.01821680097623009</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.547937</v>
+        <v>1.661741333333333</v>
       </c>
       <c r="N5">
-        <v>10.643811</v>
+        <v>4.985224</v>
       </c>
       <c r="O5">
-        <v>0.3652467829041842</v>
+        <v>0.3212733944672698</v>
       </c>
       <c r="P5">
-        <v>0.3652467829041842</v>
+        <v>0.3212733944672699</v>
       </c>
       <c r="Q5">
-        <v>0.01225930498066666</v>
+        <v>0.2287614049982222</v>
       </c>
       <c r="R5">
-        <v>0.110333744826</v>
+        <v>2.058852644984</v>
       </c>
       <c r="S5">
-        <v>0.0001640507738328705</v>
+        <v>0.005852573485968115</v>
       </c>
       <c r="T5">
-        <v>0.0001640507738328705</v>
+        <v>0.005852573485968116</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.003455333333333333</v>
+        <v>0.1376636666666667</v>
       </c>
       <c r="H6">
-        <v>0.010366</v>
+        <v>0.412991</v>
       </c>
       <c r="I6">
-        <v>0.0004491504963533279</v>
+        <v>0.01821680097623009</v>
       </c>
       <c r="J6">
-        <v>0.0004491504963533278</v>
+        <v>0.01821680097623009</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1715316666666667</v>
+        <v>0.1178836666666667</v>
       </c>
       <c r="N6">
-        <v>0.514595</v>
+        <v>0.353651</v>
       </c>
       <c r="O6">
-        <v>0.01765854055925821</v>
+        <v>0.02279108365576842</v>
       </c>
       <c r="P6">
-        <v>0.01765854055925821</v>
+        <v>0.02279108365576842</v>
       </c>
       <c r="Q6">
-        <v>0.0005926990855555555</v>
+        <v>0.01622829779344444</v>
       </c>
       <c r="R6">
-        <v>0.00533429177</v>
+        <v>0.146054680141</v>
       </c>
       <c r="S6">
-        <v>7.931342257066197E-06</v>
+        <v>0.0004151806349897437</v>
       </c>
       <c r="T6">
-        <v>7.931342257066197E-06</v>
+        <v>0.0004151806349897437</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.003455333333333333</v>
+        <v>0.1376636666666667</v>
       </c>
       <c r="H7">
-        <v>0.010366</v>
+        <v>0.412991</v>
       </c>
       <c r="I7">
-        <v>0.0004491504963533279</v>
+        <v>0.01821680097623009</v>
       </c>
       <c r="J7">
-        <v>0.0004491504963533278</v>
+        <v>0.01821680097623009</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.293933666666666</v>
+        <v>0.385306</v>
       </c>
       <c r="N7">
-        <v>6.881800999999999</v>
+        <v>1.155918</v>
       </c>
       <c r="O7">
-        <v>0.2361518516099917</v>
+        <v>0.07449328246550557</v>
       </c>
       <c r="P7">
-        <v>0.2361518516099917</v>
+        <v>0.0744932824655056</v>
       </c>
       <c r="Q7">
-        <v>0.007926305462888887</v>
+        <v>0.05304263674866666</v>
       </c>
       <c r="R7">
-        <v>0.071336749166</v>
+        <v>0.477383730738</v>
       </c>
       <c r="S7">
-        <v>0.0001060677213653852</v>
+        <v>0.001357029300740206</v>
       </c>
       <c r="T7">
-        <v>0.0001060677213653852</v>
+        <v>0.001357029300740206</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>21.943935</v>
       </c>
       <c r="I8">
-        <v>0.9508131677788118</v>
+        <v>0.9679346439276632</v>
       </c>
       <c r="J8">
-        <v>0.9508131677788116</v>
+        <v>0.967934643927663</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.715363</v>
+        <v>1.667434</v>
       </c>
       <c r="N8">
-        <v>5.146089</v>
+        <v>5.002302</v>
       </c>
       <c r="O8">
-        <v>0.1765901754351529</v>
+        <v>0.3223739883484499</v>
       </c>
       <c r="P8">
-        <v>0.1765901754351529</v>
+        <v>0.32237398834845</v>
       </c>
       <c r="Q8">
-        <v>12.547271391135</v>
+        <v>12.19668777093</v>
       </c>
       <c r="R8">
-        <v>112.925442520215</v>
+        <v>109.77018993837</v>
       </c>
       <c r="S8">
-        <v>0.1679042641041139</v>
+        <v>0.3120369516235975</v>
       </c>
       <c r="T8">
-        <v>0.1679042641041138</v>
+        <v>0.3120369516235975</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>21.943935</v>
       </c>
       <c r="I9">
-        <v>0.9508131677788118</v>
+        <v>0.9679346439276632</v>
       </c>
       <c r="J9">
-        <v>0.9508131677788116</v>
+        <v>0.967934643927663</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>3.403445</v>
       </c>
       <c r="O9">
-        <v>0.1167906248092277</v>
+        <v>0.2193354457157105</v>
       </c>
       <c r="P9">
-        <v>0.1167906248092277</v>
+        <v>0.2193354457157106</v>
       </c>
       <c r="Q9">
         <v>8.298330650674998</v>
@@ -1013,10 +1013,10 @@
         <v>74.68497585607498</v>
       </c>
       <c r="S9">
-        <v>0.1110460639417285</v>
+        <v>0.2123023765495515</v>
       </c>
       <c r="T9">
-        <v>0.1110460639417285</v>
+        <v>0.2123023765495516</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>21.943935</v>
       </c>
       <c r="I10">
-        <v>0.9508131677788118</v>
+        <v>0.9679346439276632</v>
       </c>
       <c r="J10">
-        <v>0.9508131677788116</v>
+        <v>0.967934643927663</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8505606666666666</v>
+        <v>0.2055123333333333</v>
       </c>
       <c r="N10">
-        <v>2.551682</v>
+        <v>0.616537</v>
       </c>
       <c r="O10">
-        <v>0.08756202468218523</v>
+        <v>0.03973280534729575</v>
       </c>
       <c r="P10">
-        <v>0.08756202468218521</v>
+        <v>0.03973280534729576</v>
       </c>
       <c r="Q10">
-        <v>6.221549327629998</v>
+        <v>1.503249761455</v>
       </c>
       <c r="R10">
-        <v>55.99394394866999</v>
+        <v>13.529247853095</v>
       </c>
       <c r="S10">
-        <v>0.08325512606519504</v>
+        <v>0.03845875879608186</v>
       </c>
       <c r="T10">
-        <v>0.08325512606519501</v>
+        <v>0.03845875879608187</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>21.943935</v>
       </c>
       <c r="I11">
-        <v>0.9508131677788118</v>
+        <v>0.9679346439276632</v>
       </c>
       <c r="J11">
-        <v>0.9508131677788116</v>
+        <v>0.967934643927663</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.547937</v>
+        <v>1.661741333333333</v>
       </c>
       <c r="N11">
-        <v>10.643811</v>
+        <v>4.985224</v>
       </c>
       <c r="O11">
-        <v>0.3652467829041842</v>
+        <v>0.3212733944672698</v>
       </c>
       <c r="P11">
-        <v>0.3652467829041842</v>
+        <v>0.3212733944672699</v>
       </c>
       <c r="Q11">
-        <v>25.95189963736499</v>
+        <v>12.15504793516</v>
       </c>
       <c r="R11">
-        <v>233.567096736285</v>
+        <v>109.39543141644</v>
       </c>
       <c r="S11">
-        <v>0.3472814506741473</v>
+        <v>0.3109716486771085</v>
       </c>
       <c r="T11">
-        <v>0.3472814506741472</v>
+        <v>0.3109716486771085</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>21.943935</v>
       </c>
       <c r="I12">
-        <v>0.9508131677788118</v>
+        <v>0.9679346439276632</v>
       </c>
       <c r="J12">
-        <v>0.9508131677788116</v>
+        <v>0.967934643927663</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1715316666666667</v>
+        <v>0.1178836666666667</v>
       </c>
       <c r="N12">
-        <v>0.514595</v>
+        <v>0.353651</v>
       </c>
       <c r="O12">
-        <v>0.01765854055925821</v>
+        <v>0.02279108365576842</v>
       </c>
       <c r="P12">
-        <v>0.01765854055925821</v>
+        <v>0.02279108365576842</v>
       </c>
       <c r="Q12">
-        <v>1.254693247925</v>
+        <v>0.8622771729649998</v>
       </c>
       <c r="R12">
-        <v>11.292239231325</v>
+        <v>7.760494556684998</v>
       </c>
       <c r="S12">
-        <v>0.01678997288749893</v>
+        <v>0.02206027944307179</v>
       </c>
       <c r="T12">
-        <v>0.01678997288749893</v>
+        <v>0.02206027944307179</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>21.943935</v>
       </c>
       <c r="I13">
-        <v>0.9508131677788118</v>
+        <v>0.9679346439276632</v>
       </c>
       <c r="J13">
-        <v>0.9508131677788116</v>
+        <v>0.967934643927663</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.293933666666666</v>
+        <v>0.385306</v>
       </c>
       <c r="N13">
-        <v>6.881800999999999</v>
+        <v>1.155918</v>
       </c>
       <c r="O13">
-        <v>0.2361518516099917</v>
+        <v>0.07449328246550557</v>
       </c>
       <c r="P13">
-        <v>0.2361518516099917</v>
+        <v>0.0744932824655056</v>
       </c>
       <c r="Q13">
-        <v>16.77931042521499</v>
+        <v>2.818376606369999</v>
       </c>
       <c r="R13">
-        <v>151.013793826935</v>
+        <v>25.36538945733</v>
       </c>
       <c r="S13">
-        <v>0.2245362901061281</v>
+        <v>0.07210462883825197</v>
       </c>
       <c r="T13">
-        <v>0.2245362901061281</v>
+        <v>0.07210462883825199</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.374941</v>
+        <v>0.104653</v>
       </c>
       <c r="H14">
-        <v>1.124823</v>
+        <v>0.313959</v>
       </c>
       <c r="I14">
-        <v>0.04873768172483497</v>
+        <v>0.01384855509610675</v>
       </c>
       <c r="J14">
-        <v>0.04873768172483497</v>
+        <v>0.01384855509610675</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.715363</v>
+        <v>1.667434</v>
       </c>
       <c r="N14">
-        <v>5.146089</v>
+        <v>5.002302</v>
       </c>
       <c r="O14">
-        <v>0.1765901754351529</v>
+        <v>0.3223739883484499</v>
       </c>
       <c r="P14">
-        <v>0.1765901754351529</v>
+        <v>0.32237398834845</v>
       </c>
       <c r="Q14">
-        <v>0.6431599185829999</v>
+        <v>0.174501970402</v>
       </c>
       <c r="R14">
-        <v>5.788439267246999</v>
+        <v>1.570517733618</v>
       </c>
       <c r="S14">
-        <v>0.008606595766091255</v>
+        <v>0.004464413939195184</v>
       </c>
       <c r="T14">
-        <v>0.008606595766091253</v>
+        <v>0.004464413939195185</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.374941</v>
+        <v>0.104653</v>
       </c>
       <c r="H15">
-        <v>1.124823</v>
+        <v>0.313959</v>
       </c>
       <c r="I15">
-        <v>0.04873768172483497</v>
+        <v>0.01384855509610675</v>
       </c>
       <c r="J15">
-        <v>0.04873768172483497</v>
+        <v>0.01384855509610675</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.403445</v>
       </c>
       <c r="O15">
-        <v>0.1167906248092277</v>
+        <v>0.2193354457157105</v>
       </c>
       <c r="P15">
-        <v>0.1167906248092277</v>
+        <v>0.2193354457157106</v>
       </c>
       <c r="Q15">
-        <v>0.4253636905816666</v>
+        <v>0.1187269098616667</v>
       </c>
       <c r="R15">
-        <v>3.828273215235</v>
+        <v>1.068542188755</v>
       </c>
       <c r="S15">
-        <v>0.005692104300396757</v>
+        <v>0.003037479004523148</v>
       </c>
       <c r="T15">
-        <v>0.005692104300396757</v>
+        <v>0.003037479004523148</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.374941</v>
+        <v>0.104653</v>
       </c>
       <c r="H16">
-        <v>1.124823</v>
+        <v>0.313959</v>
       </c>
       <c r="I16">
-        <v>0.04873768172483497</v>
+        <v>0.01384855509610675</v>
       </c>
       <c r="J16">
-        <v>0.04873768172483497</v>
+        <v>0.01384855509610675</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8505606666666666</v>
+        <v>0.2055123333333333</v>
       </c>
       <c r="N16">
-        <v>2.551682</v>
+        <v>0.616537</v>
       </c>
       <c r="O16">
-        <v>0.08756202468218523</v>
+        <v>0.03973280534729575</v>
       </c>
       <c r="P16">
-        <v>0.08756202468218521</v>
+        <v>0.03973280534729576</v>
       </c>
       <c r="Q16">
-        <v>0.3189100669206666</v>
+        <v>0.02150748222033333</v>
       </c>
       <c r="R16">
-        <v>2.870190602286</v>
+        <v>0.193567339983</v>
       </c>
       <c r="S16">
-        <v>0.004267570090142487</v>
+        <v>0.0005502419439749101</v>
       </c>
       <c r="T16">
-        <v>0.004267570090142486</v>
+        <v>0.0005502419439749102</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.374941</v>
+        <v>0.104653</v>
       </c>
       <c r="H17">
-        <v>1.124823</v>
+        <v>0.313959</v>
       </c>
       <c r="I17">
-        <v>0.04873768172483497</v>
+        <v>0.01384855509610675</v>
       </c>
       <c r="J17">
-        <v>0.04873768172483497</v>
+        <v>0.01384855509610675</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.547937</v>
+        <v>1.661741333333333</v>
       </c>
       <c r="N17">
-        <v>10.643811</v>
+        <v>4.985224</v>
       </c>
       <c r="O17">
-        <v>0.3652467829041842</v>
+        <v>0.3212733944672698</v>
       </c>
       <c r="P17">
-        <v>0.3652467829041842</v>
+        <v>0.3212733944672699</v>
       </c>
       <c r="Q17">
-        <v>1.330267046717</v>
+        <v>0.1739062157573333</v>
       </c>
       <c r="R17">
-        <v>11.972403420453</v>
+        <v>1.565155941816</v>
       </c>
       <c r="S17">
-        <v>0.01780128145620402</v>
+        <v>0.004449172304193224</v>
       </c>
       <c r="T17">
-        <v>0.01780128145620402</v>
+        <v>0.004449172304193224</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.374941</v>
+        <v>0.104653</v>
       </c>
       <c r="H18">
-        <v>1.124823</v>
+        <v>0.313959</v>
       </c>
       <c r="I18">
-        <v>0.04873768172483497</v>
+        <v>0.01384855509610675</v>
       </c>
       <c r="J18">
-        <v>0.04873768172483497</v>
+        <v>0.01384855509610675</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.1715316666666667</v>
+        <v>0.1178836666666667</v>
       </c>
       <c r="N18">
-        <v>0.514595</v>
+        <v>0.353651</v>
       </c>
       <c r="O18">
-        <v>0.01765854055925821</v>
+        <v>0.02279108365576842</v>
       </c>
       <c r="P18">
-        <v>0.01765854055925821</v>
+        <v>0.02279108365576842</v>
       </c>
       <c r="Q18">
-        <v>0.06431425463166666</v>
+        <v>0.01233687936766667</v>
       </c>
       <c r="R18">
-        <v>0.5788282916849999</v>
+        <v>0.111031914309</v>
       </c>
       <c r="S18">
-        <v>0.0008606363295022159</v>
+        <v>0.000315623577706887</v>
       </c>
       <c r="T18">
-        <v>0.0008606363295022159</v>
+        <v>0.000315623577706887</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.374941</v>
+        <v>0.104653</v>
       </c>
       <c r="H19">
-        <v>1.124823</v>
+        <v>0.313959</v>
       </c>
       <c r="I19">
-        <v>0.04873768172483497</v>
+        <v>0.01384855509610675</v>
       </c>
       <c r="J19">
-        <v>0.04873768172483497</v>
+        <v>0.01384855509610675</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.293933666666666</v>
+        <v>0.385306</v>
       </c>
       <c r="N19">
-        <v>6.881800999999999</v>
+        <v>1.155918</v>
       </c>
       <c r="O19">
-        <v>0.2361518516099917</v>
+        <v>0.07449328246550557</v>
       </c>
       <c r="P19">
-        <v>0.2361518516099917</v>
+        <v>0.0744932824655056</v>
       </c>
       <c r="Q19">
-        <v>0.8600897829136664</v>
+        <v>0.040323428818</v>
       </c>
       <c r="R19">
-        <v>7.740808046222998</v>
+        <v>0.362910859362</v>
       </c>
       <c r="S19">
-        <v>0.01150949378249823</v>
+        <v>0.001031624326513397</v>
       </c>
       <c r="T19">
-        <v>0.01150949378249823</v>
+        <v>0.001031624326513397</v>
       </c>
     </row>
   </sheetData>
